--- a/tests/test_tax_transfers/test_data/test_dfs_ui.xlsx
+++ b/tests/test_tax_transfers/test_data/test_dfs_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\izamod\izadynmod\tests\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\izamod\izadynmod\tests\test_tax_transfers\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>hid</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>pid</t>
   </si>
 </sst>
 </file>
@@ -413,21 +416,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="12" max="13" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,64 +438,67 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,19 +506,19 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -530,41 +536,44 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>30</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2019</v>
       </c>
-      <c r="S2" s="2">
-        <f>0.6*Y2*T2</f>
+      <c r="T2" s="2">
+        <f>0.6*Z2*U2</f>
         <v>465.54999999999995</v>
       </c>
-      <c r="T2" s="3" t="b">
-        <f>AND(K2&lt;15,(F2+G2+H2)&lt;12,J2=0,M2&lt;65)</f>
-        <v>1</v>
-      </c>
-      <c r="U2" s="3">
-        <f>MIN(6700,C2)</f>
+      <c r="U2" s="3" t="b">
+        <f>AND(L2&lt;15,(G2+H2+I2)&lt;12,K2=0,N2&lt;65)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <f>MIN(6700,D2)</f>
         <v>1000</v>
       </c>
-      <c r="V2" s="3">
-        <f>0.2*U2</f>
+      <c r="W2" s="3">
+        <f>0.2*V2</f>
         <v>200</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <f>289/12</f>
         <v>24.083333333333332</v>
       </c>
-      <c r="X2" s="3">
-        <f>MIN(0.055*W2*12, MAX(0,0.2*(12*W2-972)))/12</f>
-        <v>0</v>
-      </c>
       <c r="Y2" s="3">
-        <f>U2-V2-W2-X2</f>
+        <f>MIN(0.055*X2*12, MAX(0,0.2*(12*X2-972)))/12</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>V2-W2-X2-Y2</f>
         <v>775.91666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -572,19 +581,19 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
         <v>2000</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -602,40 +611,43 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2019</v>
       </c>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S8" si="0">0.6*Y3*T3</f>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T8" si="0">0.6*Z3*U3</f>
         <v>789.77363999999989</v>
       </c>
-      <c r="T3" s="3" t="b">
-        <f t="shared" ref="T3:T8" si="1">AND(K3&lt;15,(F3+G3+H3)&lt;12,J3=0,M3&lt;65)</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="3">
-        <f>MIN(6700,C3)</f>
+      <c r="U3" s="3" t="b">
+        <f t="shared" ref="U3:U8" si="1">AND(L3&lt;15,(G3+H3+I3)&lt;12,K3=0,N3&lt;65)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <f>MIN(6700,D3)</f>
         <v>2000</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V5" si="2">0.2*U3</f>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3:W5" si="2">0.2*V3</f>
         <v>400</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>268.92</v>
       </c>
-      <c r="X3" s="3">
-        <f t="shared" ref="X3:X8" si="3">MIN(0.055*W3*12, MAX(0,0.2*(12*W3-972)))/12</f>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y8" si="3">MIN(0.055*X3*12, MAX(0,0.2*(12*X3-972)))/12</f>
         <v>14.790600000000003</v>
       </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y7" si="4">U3-V3-W3-X3</f>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z7" si="4">V3-W3-X3-Y3</f>
         <v>1316.2893999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -643,23 +655,23 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
         <v>3000</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -670,43 +682,46 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2019</v>
       </c>
-      <c r="S4" s="2">
-        <f>0.67*Y4*T4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="b">
+      <c r="T4" s="2">
+        <f>0.67*Z4*U4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U4" s="3">
-        <f>MIN(6700,C4)</f>
+      <c r="V4" s="3">
+        <f>MIN(6700,D4)</f>
         <v>3000</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>572.33000000000004</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <f t="shared" si="3"/>
         <v>31.478150000000003</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <f t="shared" si="4"/>
         <v>1796.1918500000002</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -714,19 +729,19 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>4000</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -738,46 +753,49 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>30</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2019</v>
       </c>
-      <c r="S5" s="2">
-        <f>0.67*Y5*T5</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="b">
+      <c r="T5" s="2">
+        <f>0.67*Z5*U5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U5" s="3">
-        <f>MIN(6700,C5)</f>
+      <c r="V5" s="3">
+        <f>MIN(6700,D5)</f>
         <v>4000</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>927.66</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <f t="shared" si="3"/>
         <v>51.021299999999997</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <f t="shared" si="4"/>
         <v>2221.3187000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -785,19 +803,19 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6">
         <v>7000</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -812,43 +830,46 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>30</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2015</v>
       </c>
-      <c r="S6" s="2">
-        <f>0.67*Y6*T6</f>
+      <c r="T6" s="2">
+        <f>0.67*Z6*U6</f>
         <v>1719.963164</v>
       </c>
-      <c r="T6" s="3" t="b">
+      <c r="U6" s="3" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U6" s="3">
-        <f>MIN(5200,C6)</f>
+      <c r="V6" s="3">
+        <f>MIN(5200,D6)</f>
         <v>5200</v>
       </c>
-      <c r="V6" s="3">
-        <f>0.21*U6</f>
+      <c r="W6" s="3">
+        <f>0.21*V6</f>
         <v>1092</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>1460.56</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <f t="shared" si="3"/>
         <v>80.330799999999996</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <f t="shared" si="4"/>
         <v>2567.1091999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -856,19 +877,19 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
         <v>2500</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="F7" t="b">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -883,43 +904,46 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>40</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2010</v>
       </c>
-      <c r="S7" s="2">
-        <f>0.67*Y7*T7</f>
+      <c r="T7" s="2">
+        <f>0.67*Z7*U7</f>
         <v>1021.8667809999999</v>
       </c>
-      <c r="T7" s="3" t="b">
+      <c r="U7" s="3" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U7" s="3">
-        <f>MIN(6050,C7)</f>
+      <c r="V7" s="3">
+        <f>MIN(6050,D7)</f>
         <v>2500</v>
       </c>
-      <c r="V7" s="3">
-        <f>0.20225*U7</f>
+      <c r="W7" s="3">
+        <f>0.20225*V7</f>
         <v>505.62500000000006</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>444.74</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <f t="shared" si="3"/>
         <v>24.460699999999999</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <f t="shared" si="4"/>
         <v>1525.1742999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -927,19 +951,19 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
         <v>2300</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="b">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -957,77 +981,80 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>66</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2011</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="b">
+      <c r="U8" s="3" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U8" s="3">
-        <f>MIN(6050,C8)</f>
+      <c r="V8" s="3">
+        <f>MIN(6050,D8)</f>
         <v>2300</v>
       </c>
-      <c r="V8" s="3">
-        <f>0.21*U8</f>
+      <c r="W8" s="3">
+        <f>0.21*V8</f>
         <v>483</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>383.62</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <f t="shared" si="3"/>
         <v>21.0991</v>
       </c>
-      <c r="Y8" s="3">
-        <f t="shared" ref="Y8" si="5">U8-V8-W8-X8</f>
+      <c r="Z8" s="3">
+        <f t="shared" ref="Z8" si="5">V8-W8-X8-Y8</f>
         <v>1412.2809000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S21" s="1"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
